--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-25.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-25.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.511</v>
+        <v>1511</v>
       </c>
       <c r="C2" t="n">
         <v>38</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.577000000000001</v>
+        <v>5577</v>
       </c>
       <c r="C3" t="n">
         <v>73</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.515</v>
+        <v>7515</v>
       </c>
       <c r="C4" t="n">
         <v>288</v>
@@ -489,7 +489,7 @@
         <v>122</v>
       </c>
       <c r="H4" t="n">
-        <v>1.708</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.637</v>
+        <v>2637</v>
       </c>
       <c r="C6" t="n">
         <v>98</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.482</v>
+        <v>10482</v>
       </c>
       <c r="C7" t="n">
         <v>295</v>
@@ -573,7 +573,7 @@
         <v>195</v>
       </c>
       <c r="H7" t="n">
-        <v>2.072</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>206.246</v>
+        <v>206246</v>
       </c>
       <c r="C8" t="n">
-        <v>3.035</v>
+        <v>3035</v>
       </c>
       <c r="D8" t="n">
-        <v>2.473</v>
+        <v>2473</v>
       </c>
       <c r="E8" t="n">
         <v>202</v>
@@ -598,10 +598,10 @@
         <v>360</v>
       </c>
       <c r="G8" t="n">
-        <v>4.206</v>
+        <v>4206</v>
       </c>
       <c r="H8" t="n">
-        <v>22.743</v>
+        <v>22743</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.868</v>
+        <v>4868</v>
       </c>
       <c r="C9" t="n">
         <v>258</v>
@@ -629,7 +629,7 @@
         <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.832</v>
+        <v>4832</v>
       </c>
       <c r="C10" t="n">
         <v>175</v>
@@ -657,7 +657,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.272</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.233</v>
+        <v>2233</v>
       </c>
       <c r="C11" t="n">
         <v>14</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.702000000000001</v>
+        <v>5702</v>
       </c>
       <c r="C12" t="n">
         <v>238</v>
@@ -713,7 +713,7 @@
         <v>42</v>
       </c>
       <c r="H12" t="n">
-        <v>1.871</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.064</v>
+        <v>3064</v>
       </c>
       <c r="C13" t="n">
         <v>27</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.505</v>
+        <v>1505</v>
       </c>
       <c r="C15" t="n">
         <v>22</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.385</v>
+        <v>1385</v>
       </c>
       <c r="C17" t="n">
         <v>22</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.064</v>
+        <v>259064</v>
       </c>
       <c r="C18" t="n">
-        <v>4.648</v>
+        <v>4648</v>
       </c>
       <c r="D18" t="n">
-        <v>3.778</v>
+        <v>3778</v>
       </c>
       <c r="E18" t="n">
         <v>423</v>
@@ -878,10 +878,10 @@
         <v>447</v>
       </c>
       <c r="G18" t="n">
-        <v>4.903</v>
+        <v>4903</v>
       </c>
       <c r="H18" t="n">
-        <v>34.834</v>
+        <v>34834</v>
       </c>
     </row>
   </sheetData>
